--- a/Data/aearep-280/candidatepackages.xlsx
+++ b/Data/aearep-280/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -31,12 +31,12 @@
     <t>ftools</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -55,10 +55,13 @@
     <t>sutex</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>sq</t>
   </si>
   <si>
-    <t>title</t>
+    <t>poverty</t>
   </si>
   <si>
     <t>cluster</t>
@@ -73,21 +76,18 @@
     <t>white</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
     <t>overlay</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
     <t>addnotes</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -106,9 +106,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-280</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-280/0-replication-afrobarometer/0-Code</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>0-dataset-construction-AF1-6-football-data.do</t>
@@ -238,7 +232,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -274,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -298,7 +292,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -310,7 +304,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -322,7 +316,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -334,7 +328,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -346,7 +340,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -358,7 +352,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -370,10 +364,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C13">
-        <v>0.11803713440895081</v>
+        <v>0</v>
       </c>
       <c r="D13"/>
     </row>
@@ -382,10 +376,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>563</v>
+        <v>499</v>
       </c>
       <c r="C14">
-        <v>0.18667109310626984</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D14"/>
     </row>
@@ -394,10 +388,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="C15">
-        <v>0.18733422458171844</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D15"/>
     </row>
@@ -406,10 +400,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="C16">
-        <v>0.18766577541828156</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D16"/>
     </row>
@@ -418,10 +412,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="C17">
-        <v>0.20092837512493134</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D17"/>
     </row>
@@ -430,10 +424,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>694</v>
+        <v>632</v>
       </c>
       <c r="C18">
-        <v>0.23010610044002533</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D18"/>
     </row>
@@ -442,10 +436,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D19"/>
     </row>
@@ -454,10 +448,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>811</v>
+        <v>712</v>
       </c>
       <c r="C20">
-        <v>0.26889920234680176</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D20"/>
     </row>
@@ -466,10 +460,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C21">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D21"/>
     </row>
@@ -478,10 +472,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C22">
-        <v>0.36273208260536194</v>
+        <v>0.36264464259147644</v>
       </c>
       <c r="D22"/>
     </row>
@@ -490,10 +484,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C23">
-        <v>0.43501326441764832</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D23"/>
     </row>
@@ -502,10 +496,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1472</v>
+        <v>1385</v>
       </c>
       <c r="C24">
-        <v>0.48806366324424744</v>
+        <v>0.45785123109817505</v>
       </c>
       <c r="D24"/>
     </row>
@@ -514,10 +508,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C25">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D25"/>
     </row>
@@ -526,10 +520,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1835</v>
+        <v>2030</v>
       </c>
       <c r="C26">
-        <v>0.60842174291610718</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D26"/>
     </row>
@@ -539,7 +533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -547,7 +541,7 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -555,79 +549,79 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -635,71 +629,63 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
